--- a/excel/Пункты выдачи_import.xlsx
+++ b/excel/Пункты выдачи_import.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Новая папка (3)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CatPlumage\School\PROJECT\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="996" windowWidth="26760" windowHeight="16560"/>
+    <workbookView xWindow="1760" yWindow="1000" windowWidth="26760" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,9 +86,6 @@
     <t>625590, г. Лесной, ул. Коммунистическая, 20</t>
   </si>
   <si>
-    <t>625683, г. Лесной, ул. 8 Марта</t>
-  </si>
-  <si>
     <t>400562, г. Лесной, ул. Зеленая, 32</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>426030, г. Лесной, ул. Маяковского, 44</t>
   </si>
   <si>
-    <t>450375, г. Лесной ул. Клубная, 44</t>
-  </si>
-  <si>
     <t>625560, г. Лесной, ул. Некрасова, 12</t>
   </si>
   <si>
@@ -138,6 +132,12 @@
   </si>
   <si>
     <t>190949, г. Лесной, ул. Мичурина, 26</t>
+  </si>
+  <si>
+    <t>625683, г. Лесной, ул. 8 Марта, 5</t>
+  </si>
+  <si>
+    <t>450375, г. Лесной, ул. Клубная, 44</t>
   </si>
 </sst>
 </file>
@@ -501,189 +501,192 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="64.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
